--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="restaurants" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>street</t>
   </si>
@@ -230,13 +231,52 @@
   </si>
   <si>
     <t>Source: Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>restaurants</t>
+  </si>
+  <si>
+    <t>Minneapolis global dining resturants by review and location</t>
+  </si>
+  <si>
+    <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Street name (central, nicollet, university)</t>
+  </si>
+  <si>
+    <t>Restaurant name</t>
+  </si>
+  <si>
+    <t>Restaurant address</t>
+  </si>
+  <si>
+    <t>Restaurant city</t>
+  </si>
+  <si>
+    <t>Restaurant website URL</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Restaurant review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +300,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,11 +345,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -309,6 +361,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -317,6 +370,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -649,7 +703,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1074,22 +1128,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2017</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
